--- a/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 13,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-1,16%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,88</t>
+          <t>-3,61; 1,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,07%</t>
+          <t>-29,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-61,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,81</t>
+          <t>-3,85; 1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,51</t>
+          <t>0,0; 4,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,0</t>
+          <t>-2,92; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 395,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1007,9 +1007,117 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 1,05</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 1,51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.21527888310863</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +652,116 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>11.1334613974149</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 1,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4926183117909506</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.0845927838517965</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>0.09322569487233789</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,8%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-2.593983634324403</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 1,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>2.4823529340331</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>2.095972824036273</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +769,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.6463229366001739</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5066518010500305</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5541595818180955</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.5609567694822032</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4647524187489496</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.346852236600097</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.792225781786345</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.274991004138979</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.156581156236285</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.751739655241581</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>43,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 1,51</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.2677569719118826</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04316178620266181</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2217026276498095</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1370264887525162</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1028533240398346</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2072236668748695</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.349627775216103</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.367755138525861</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.402428079589543</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9259089463361148</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.325112267525816</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.404194183309882</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
